--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="H2">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="I2">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="J2">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N2">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O2">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P2">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q2">
-        <v>9087.927046030656</v>
+        <v>8645.266762938714</v>
       </c>
       <c r="R2">
-        <v>81791.34341427591</v>
+        <v>77807.40086644843</v>
       </c>
       <c r="S2">
-        <v>0.6743608449999309</v>
+        <v>0.6620360547206604</v>
       </c>
       <c r="T2">
-        <v>0.6743608449999311</v>
+        <v>0.6620360547206606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="H3">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="I3">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="J3">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N3">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O3">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P3">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q3">
-        <v>1871.110762139495</v>
+        <v>1824.972312749725</v>
       </c>
       <c r="R3">
-        <v>16839.99685925546</v>
+        <v>16424.75081474752</v>
       </c>
       <c r="S3">
-        <v>0.1388439660941132</v>
+        <v>0.1397524799450577</v>
       </c>
       <c r="T3">
-        <v>0.1388439660941133</v>
+        <v>0.1397524799450578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="H4">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="I4">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="J4">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N4">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O4">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P4">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q4">
-        <v>13.96491892122356</v>
+        <v>25.14521242795334</v>
       </c>
       <c r="R4">
-        <v>125.684270291012</v>
+        <v>226.30691185158</v>
       </c>
       <c r="S4">
-        <v>0.001036253314575747</v>
+        <v>0.001925566635176502</v>
       </c>
       <c r="T4">
-        <v>0.001036253314575747</v>
+        <v>0.001925566635176502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="H5">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="I5">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="J5">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N5">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O5">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P5">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q5">
-        <v>87.52698224824624</v>
+        <v>96.05306820954446</v>
       </c>
       <c r="R5">
-        <v>787.7428402342161</v>
+        <v>864.4776138859002</v>
       </c>
       <c r="S5">
-        <v>0.006494855142460855</v>
+        <v>0.007355538708633843</v>
       </c>
       <c r="T5">
-        <v>0.006494855142460857</v>
+        <v>0.007355538708633844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="H6">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="I6">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="J6">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N6">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O6">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P6">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q6">
-        <v>6.183588867805112</v>
+        <v>33.77399756909112</v>
       </c>
       <c r="R6">
-        <v>55.65229981024601</v>
+        <v>303.9659781218201</v>
       </c>
       <c r="S6">
-        <v>0.0004588472368785733</v>
+        <v>0.002586340562519062</v>
       </c>
       <c r="T6">
-        <v>0.0004588472368785735</v>
+        <v>0.002586340562519062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H7">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I7">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="J7">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N7">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O7">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P7">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q7">
-        <v>1871.110762139495</v>
+        <v>1824.972312749725</v>
       </c>
       <c r="R7">
-        <v>16839.99685925546</v>
+        <v>16424.75081474752</v>
       </c>
       <c r="S7">
-        <v>0.1388439660941132</v>
+        <v>0.1397524799450577</v>
       </c>
       <c r="T7">
-        <v>0.1388439660941133</v>
+        <v>0.1397524799450578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H8">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I8">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="J8">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N8">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O8">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P8">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q8">
-        <v>385.2424723989618</v>
+        <v>385.2424723989616</v>
       </c>
       <c r="R8">
-        <v>3467.182251590656</v>
+        <v>3467.182251590655</v>
       </c>
       <c r="S8">
-        <v>0.02858654541359862</v>
+        <v>0.02950104531547692</v>
       </c>
       <c r="T8">
-        <v>0.02858654541359863</v>
+        <v>0.02950104531547693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H9">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I9">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="J9">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N9">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O9">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P9">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q9">
-        <v>2.875233257656889</v>
+        <v>5.308027818869332</v>
       </c>
       <c r="R9">
-        <v>25.877099318912</v>
+        <v>47.77225036982399</v>
       </c>
       <c r="S9">
-        <v>0.0002133539056139628</v>
+        <v>0.0004064774276967764</v>
       </c>
       <c r="T9">
-        <v>0.0002133539056139628</v>
+        <v>0.0004064774276967765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H10">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I10">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="J10">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N10">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O10">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P10">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q10">
-        <v>18.02090593737956</v>
+        <v>20.27631938305777</v>
       </c>
       <c r="R10">
-        <v>162.188153436416</v>
+        <v>182.48687444752</v>
       </c>
       <c r="S10">
-        <v>0.00133722391190447</v>
+        <v>0.001552717210087874</v>
       </c>
       <c r="T10">
-        <v>0.001337223911904471</v>
+        <v>0.001552717210087874</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="H11">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="I11">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="J11">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N11">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O11">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P11">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q11">
-        <v>1.273137385521778</v>
+        <v>7.129520944188443</v>
       </c>
       <c r="R11">
-        <v>11.458236469696</v>
+        <v>64.165688497696</v>
       </c>
       <c r="S11">
-        <v>9.44719294898456E-05</v>
+        <v>0.0005459634789030391</v>
       </c>
       <c r="T11">
-        <v>9.447192948984563E-05</v>
+        <v>0.0005459634789030392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="H12">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="I12">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="J12">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N12">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O12">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P12">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q12">
-        <v>13.96491892122356</v>
+        <v>25.14521242795334</v>
       </c>
       <c r="R12">
-        <v>125.684270291012</v>
+        <v>226.30691185158</v>
       </c>
       <c r="S12">
-        <v>0.001036253314575747</v>
+        <v>0.001925566635176502</v>
       </c>
       <c r="T12">
-        <v>0.001036253314575747</v>
+        <v>0.001925566635176502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="H13">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="I13">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="J13">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N13">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O13">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P13">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q13">
-        <v>2.875233257656889</v>
+        <v>5.308027818869332</v>
       </c>
       <c r="R13">
-        <v>25.877099318912</v>
+        <v>47.77225036982399</v>
       </c>
       <c r="S13">
-        <v>0.0002133539056139628</v>
+        <v>0.0004064774276967764</v>
       </c>
       <c r="T13">
-        <v>0.0002133539056139628</v>
+        <v>0.0004064774276967765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="H14">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="I14">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="J14">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N14">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O14">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P14">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q14">
-        <v>0.02145912478044444</v>
+        <v>0.07313617096899999</v>
       </c>
       <c r="R14">
-        <v>0.193132123024</v>
+        <v>0.658225538721</v>
       </c>
       <c r="S14">
-        <v>1.592353618883866E-06</v>
+        <v>5.600611688844389E-06</v>
       </c>
       <c r="T14">
-        <v>1.592353618883866E-06</v>
+        <v>5.600611688844391E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="H15">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="I15">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="J15">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N15">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O15">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P15">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q15">
-        <v>0.1344979118257778</v>
+        <v>0.2793753935783333</v>
       </c>
       <c r="R15">
-        <v>1.210481206432</v>
+        <v>2.514378542205</v>
       </c>
       <c r="S15">
-        <v>9.980287584853898E-06</v>
+        <v>2.139397064570865E-05</v>
       </c>
       <c r="T15">
-        <v>9.980287584853903E-06</v>
+        <v>2.139397064570866E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="H16">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="I16">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="J16">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N16">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O16">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P16">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q16">
-        <v>0.00950198177688889</v>
+        <v>0.09823344573433333</v>
       </c>
       <c r="R16">
-        <v>0.085517835992</v>
+        <v>0.8841010116090001</v>
       </c>
       <c r="S16">
-        <v>7.050853762118901E-07</v>
+        <v>7.52250736025497E-06</v>
       </c>
       <c r="T16">
-        <v>7.050853762118904E-07</v>
+        <v>7.522507360254972E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="H17">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="I17">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="J17">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N17">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O17">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P17">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q17">
-        <v>87.52698224824624</v>
+        <v>96.05306820954446</v>
       </c>
       <c r="R17">
-        <v>787.7428402342161</v>
+        <v>864.4776138859002</v>
       </c>
       <c r="S17">
-        <v>0.006494855142460855</v>
+        <v>0.007355538708633843</v>
       </c>
       <c r="T17">
-        <v>0.006494855142460857</v>
+        <v>0.007355538708633844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="H18">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="I18">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="J18">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1547,28 +1547,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N18">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O18">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P18">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q18">
-        <v>18.02090593737956</v>
+        <v>20.27631938305777</v>
       </c>
       <c r="R18">
-        <v>162.188153436416</v>
+        <v>182.48687444752</v>
       </c>
       <c r="S18">
-        <v>0.00133722391190447</v>
+        <v>0.001552717210087874</v>
       </c>
       <c r="T18">
-        <v>0.001337223911904471</v>
+        <v>0.001552717210087874</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="H19">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="I19">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="J19">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N19">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O19">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P19">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q19">
-        <v>0.1344979118257778</v>
+        <v>0.2793753935783333</v>
       </c>
       <c r="R19">
-        <v>1.210481206432</v>
+        <v>2.514378542205</v>
       </c>
       <c r="S19">
-        <v>9.980287584853898E-06</v>
+        <v>2.139397064570865E-05</v>
       </c>
       <c r="T19">
-        <v>9.980287584853903E-06</v>
+        <v>2.139397064570866E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="H20">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="I20">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="J20">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N20">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O20">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P20">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q20">
-        <v>0.8429835079751111</v>
+        <v>1.067195746002778</v>
       </c>
       <c r="R20">
-        <v>7.586851571776001</v>
+        <v>9.604761714025001</v>
       </c>
       <c r="S20">
-        <v>6.255277665409909E-05</v>
+        <v>8.17235697488401E-05</v>
       </c>
       <c r="T20">
-        <v>6.255277665409911E-05</v>
+        <v>8.172356974884012E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,46 +1715,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="H21">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="I21">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="J21">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N21">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O21">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P21">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q21">
-        <v>0.05955493153955556</v>
+        <v>0.3752453430494445</v>
       </c>
       <c r="R21">
-        <v>0.535994383856</v>
+        <v>3.377208087445001</v>
       </c>
       <c r="S21">
-        <v>4.41921614835906E-06</v>
+        <v>2.87354865126579E-05</v>
       </c>
       <c r="T21">
-        <v>4.419216148359062E-06</v>
+        <v>2.873548651265791E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1771,22 +1771,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="H22">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="I22">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="J22">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>95.33061966666668</v>
+        <v>92.97992666666669</v>
       </c>
       <c r="N22">
-        <v>285.991859</v>
+        <v>278.93978</v>
       </c>
       <c r="O22">
-        <v>0.8211947667879593</v>
+        <v>0.8136559805720477</v>
       </c>
       <c r="P22">
-        <v>0.8211947667879594</v>
+        <v>0.8136559805720478</v>
       </c>
       <c r="Q22">
-        <v>6.183588867805112</v>
+        <v>33.77399756909112</v>
       </c>
       <c r="R22">
-        <v>55.65229981024601</v>
+        <v>303.9659781218201</v>
       </c>
       <c r="S22">
-        <v>0.0004588472368785733</v>
+        <v>0.002586340562519062</v>
       </c>
       <c r="T22">
-        <v>0.0004588472368785735</v>
+        <v>0.002586340562519062</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1833,22 +1833,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="H23">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="I23">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="J23">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1857,28 +1857,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.62759466666667</v>
+        <v>19.62759466666666</v>
       </c>
       <c r="N23">
-        <v>58.882784</v>
+        <v>58.88278399999999</v>
       </c>
       <c r="O23">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="P23">
-        <v>0.1690755612547201</v>
+        <v>0.1717586833772224</v>
       </c>
       <c r="Q23">
-        <v>1.273137385521778</v>
+        <v>7.129520944188443</v>
       </c>
       <c r="R23">
-        <v>11.458236469696</v>
+        <v>64.165688497696</v>
       </c>
       <c r="S23">
-        <v>9.44719294898456E-05</v>
+        <v>0.0005459634789030391</v>
       </c>
       <c r="T23">
-        <v>9.447192948984563E-05</v>
+        <v>0.0005459634789030392</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1895,22 +1895,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="H24">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="I24">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="J24">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1464893333333333</v>
+        <v>0.270437</v>
       </c>
       <c r="N24">
-        <v>0.439468</v>
+        <v>0.811311</v>
       </c>
       <c r="O24">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568086</v>
       </c>
       <c r="P24">
-        <v>0.001261884946769659</v>
+        <v>0.002366561152568087</v>
       </c>
       <c r="Q24">
-        <v>0.00950198177688889</v>
+        <v>0.09823344573433333</v>
       </c>
       <c r="R24">
-        <v>0.085517835992</v>
+        <v>0.8841010116090001</v>
       </c>
       <c r="S24">
-        <v>7.050853762118901E-07</v>
+        <v>7.52250736025497E-06</v>
       </c>
       <c r="T24">
-        <v>7.050853762118904E-07</v>
+        <v>7.522507360254972E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1957,22 +1957,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="H25">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="I25">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="J25">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9181413333333334</v>
+        <v>1.033051666666667</v>
       </c>
       <c r="N25">
-        <v>2.754424</v>
+        <v>3.099155</v>
       </c>
       <c r="O25">
-        <v>0.007909031334752637</v>
+        <v>0.009040108945628924</v>
       </c>
       <c r="P25">
-        <v>0.007909031334752639</v>
+        <v>0.009040108945628926</v>
       </c>
       <c r="Q25">
-        <v>0.05955493153955556</v>
+        <v>0.3752453430494445</v>
       </c>
       <c r="R25">
-        <v>0.535994383856</v>
+        <v>3.377208087445001</v>
       </c>
       <c r="S25">
-        <v>4.41921614835906E-06</v>
+        <v>2.87354865126579E-05</v>
       </c>
       <c r="T25">
-        <v>4.419216148359062E-06</v>
+        <v>2.873548651265791E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,52 +2019,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="H26">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="I26">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="J26">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.06486466666666667</v>
+        <v>0.3632396666666667</v>
       </c>
       <c r="N26">
-        <v>0.194594</v>
+        <v>1.089719</v>
       </c>
       <c r="O26">
-        <v>0.0005587556757982266</v>
+        <v>0.003178665952532805</v>
       </c>
       <c r="P26">
-        <v>0.0005587556757982267</v>
+        <v>0.003178665952532806</v>
       </c>
       <c r="Q26">
-        <v>0.004207424981777778</v>
+        <v>0.1319430554401111</v>
       </c>
       <c r="R26">
-        <v>0.037866824836</v>
+        <v>1.187487498961</v>
       </c>
       <c r="S26">
-        <v>3.122079052367329E-07</v>
+        <v>1.010391723779129E-05</v>
       </c>
       <c r="T26">
-        <v>3.12207905236733E-07</v>
+        <v>1.010391723779129E-05</v>
       </c>
     </row>
   </sheetData>
